--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne/Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne/Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Champagne-Ardenne est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Champagne-Ardenne, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 8 février 1988[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Champagne-Ardenne est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Champagne-Ardenne, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 8 février 1988.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,60 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ptéridophytes
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asplenium viride Huds., Doradille verte
 Botrychium lunaria (L.) Sw., Botryche lunaire
 Lycopodium clavatum L., Lycopode en massue
 Oreopteris limbosperma (Bellardi ex All.) Holub, Polystic des montagnes
 Osmunda regalis L., Osmonde royale
 Thelypteris palustris Schott, Thélyptéride des marais
-Phanérogames angiospermes
-Monocotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces protégées en Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allium angulosum L., Ail anguleux
 Anacamptis laxiflora (Lam.) R.M.Bateman, Pridgeon &amp; M.W.Chase anciennement Orchis laxiflora Lam., Orchis à fleurs lâches
 Anacamptis palustris (Jacq.) R.M.Bateman, Pridgeon &amp; M.W.Chase anciennement Orchis palustris Jacq., Orchis des marais
@@ -555,7 +612,47 @@
 Rhynchospora alba (L.) Vahl, Rhynchospore blanc
 Sparganium minimum Wallr., Rubanier minime
 Stratiotes aloides L., Aloès d'eau
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces protégées en Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aconitum napellus L., Aconit napel
 Anagallis tenella L., Mouron délicat
 Artemisia alba Turra, Armoise blanche
@@ -622,36 +719,78 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Espèces protégées dans les Ardennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monocotylédones
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cladium mariscus (L.) Pohl, Marisque
 Epipactis viridiflora (Hoffm.) Krock. anciennement Epictatis purpurata Sm., Epipactis pourpre.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces protégées dans les Ardennes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Laserpitium latifolium L., Laserpitium à larges feuilles
 Rubus saxatilis L., Ronce des rochers
 Trapa natans L., Mâcre, chataîgne d'eau
@@ -659,33 +798,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Espèces protégées dans l'Aube</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicotylédones
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tanacetum corymbosum (L.) Sch.Bip. subsp. corymbosum anciennement Chrysanthemum corymbosum L., Marguerite en corymbe
 Erica tetralix L., Bruyère à quatre angles
 Orthilia secunda (L.) House, Pyrole unilatérale
@@ -693,37 +838,79 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Espèces protégées dans la Marne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monocotylédones
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carex halleriana Asso, Laîche de Haller
 Eleocharis ovata (Roth) Roem. &amp; Schult., Scirpe ovale
 Epipactis viridiflora (Hoffm.) Krock. anciennement Epictatis purpurata Sm., Epipactis pourpre.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces protégées dans la Marne</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Asarum europaeum L., Asaret d'Europe
 Tanacetum corymbosum (L.) Sch.Bip. subsp. corymbosum anciennement Chrysanthemum corymbosum L., Marguerite en corymbe
 Laserpitium latifolium L., Laser blanc
